--- a/Code/Results/Cases/Case_6_30/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_30/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.45778831486538</v>
+        <v>25.45778831486539</v>
       </c>
       <c r="C2">
-        <v>18.5822510441971</v>
+        <v>18.58225104419706</v>
       </c>
       <c r="D2">
         <v>2.527107194563972</v>
       </c>
       <c r="E2">
-        <v>5.997053235622267</v>
+        <v>5.997053235622323</v>
       </c>
       <c r="F2">
-        <v>43.07084306866796</v>
+        <v>43.0708430686679</v>
       </c>
       <c r="G2">
-        <v>2.094828631267974</v>
+        <v>2.094828631267971</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.673876805832078</v>
+        <v>5.673876805832141</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.20742497498424</v>
+        <v>17.20742497498423</v>
       </c>
       <c r="N2">
-        <v>14.30224321913359</v>
+        <v>14.30224321913356</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.81115023169111</v>
+        <v>23.81115023169113</v>
       </c>
       <c r="C3">
-        <v>17.28833065072423</v>
+        <v>17.28833065072422</v>
       </c>
       <c r="D3">
-        <v>2.467946778512685</v>
+        <v>2.467946778512687</v>
       </c>
       <c r="E3">
-        <v>5.988295357230418</v>
+        <v>5.988295357230402</v>
       </c>
       <c r="F3">
-        <v>41.40393906720649</v>
+        <v>41.40393906720654</v>
       </c>
       <c r="G3">
-        <v>2.107782789061247</v>
+        <v>2.107782789061512</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.70215241646604</v>
+        <v>5.702152416465994</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.37966341958094</v>
+        <v>16.37966341958095</v>
       </c>
       <c r="N3">
-        <v>14.50639848540376</v>
+        <v>14.50639848540378</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.76623360052565</v>
+        <v>22.76623360052568</v>
       </c>
       <c r="C4">
-        <v>16.47717493539154</v>
+        <v>16.47717493539157</v>
       </c>
       <c r="D4">
-        <v>2.432233434065098</v>
+        <v>2.432233434064964</v>
       </c>
       <c r="E4">
-        <v>5.985315895909633</v>
+        <v>5.985315895909694</v>
       </c>
       <c r="F4">
-        <v>40.39698571014473</v>
+        <v>40.39698571014488</v>
       </c>
       <c r="G4">
-        <v>2.115889443340508</v>
+        <v>2.115889443340645</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.721791399027223</v>
+        <v>5.721791399027255</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.86634332023438</v>
+        <v>15.86634332023442</v>
       </c>
       <c r="N4">
-        <v>14.63656212494034</v>
+        <v>14.63656212494039</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.33204466944174</v>
+        <v>22.33204466944167</v>
       </c>
       <c r="C5">
-        <v>16.13913605847581</v>
+        <v>16.13913605847579</v>
       </c>
       <c r="D5">
-        <v>2.417801691538214</v>
+        <v>2.417801691538415</v>
       </c>
       <c r="E5">
-        <v>5.984689114605681</v>
+        <v>5.984689114605738</v>
       </c>
       <c r="F5">
-        <v>39.990988900544</v>
+        <v>39.99098890054372</v>
       </c>
       <c r="G5">
-        <v>2.119235293326496</v>
+        <v>2.119235293326763</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.730350289818258</v>
+        <v>5.730350289818222</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.65608236511788</v>
+        <v>15.65608236511781</v>
       </c>
       <c r="N5">
-        <v>14.69078041933825</v>
+        <v>14.69078041933808</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.25944804865323</v>
+        <v>22.25944804865328</v>
       </c>
       <c r="C6">
-        <v>16.08255413632608</v>
+        <v>16.08255413632605</v>
       </c>
       <c r="D6">
-        <v>2.415411789979663</v>
+        <v>2.415411789979597</v>
       </c>
       <c r="E6">
-        <v>5.984620074878394</v>
+        <v>5.984620074878389</v>
       </c>
       <c r="F6">
-        <v>39.92384238399676</v>
+        <v>39.92384238399694</v>
       </c>
       <c r="G6">
-        <v>2.119793533130405</v>
+        <v>2.119793533130542</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.731804593107954</v>
+        <v>5.731804593107891</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.62111021654508</v>
+        <v>15.6211102165451</v>
       </c>
       <c r="N6">
-        <v>14.69985344872312</v>
+        <v>14.69985344872321</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.76041163572179</v>
+        <v>22.76041163572182</v>
       </c>
       <c r="C7">
-        <v>16.47264628641154</v>
+        <v>16.47264628641151</v>
       </c>
       <c r="D7">
-        <v>2.432038349572182</v>
+        <v>2.432038349572521</v>
       </c>
       <c r="E7">
-        <v>5.985305084610406</v>
+        <v>5.985305084610507</v>
       </c>
       <c r="F7">
-        <v>40.39149241466337</v>
+        <v>40.39149241466356</v>
       </c>
       <c r="G7">
-        <v>2.115934390361887</v>
+        <v>2.115934390362154</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.721904597849415</v>
+        <v>5.721904597849353</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.86351174049629</v>
+        <v>15.86351174049635</v>
       </c>
       <c r="N7">
-        <v>14.63728861251621</v>
+        <v>14.63728861251628</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.89711230476562</v>
+        <v>24.89711230476561</v>
       </c>
       <c r="C8">
-        <v>18.12873438543664</v>
+        <v>18.12873438543666</v>
       </c>
       <c r="D8">
-        <v>2.50656144567454</v>
+        <v>2.50656144567447</v>
       </c>
       <c r="E8">
-        <v>5.993526135542158</v>
+        <v>5.99352613554206</v>
       </c>
       <c r="F8">
-        <v>42.49275643082798</v>
+        <v>42.49275643082795</v>
       </c>
       <c r="G8">
-        <v>2.099265992940014</v>
+        <v>2.099265992940149</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.683142870509362</v>
+        <v>5.683142870509306</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>16.92316756435011</v>
       </c>
       <c r="N8">
-        <v>14.37161448072068</v>
+        <v>14.37161448072067</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.03124195896992</v>
+        <v>29.03124195896991</v>
       </c>
       <c r="C9">
-        <v>21.27208440023748</v>
+        <v>21.27208440023763</v>
       </c>
       <c r="D9">
-        <v>2.659197982081452</v>
+        <v>2.659197982081719</v>
       </c>
       <c r="E9">
-        <v>6.029436129031613</v>
+        <v>6.029436129031667</v>
       </c>
       <c r="F9">
-        <v>46.74022380934471</v>
+        <v>46.74022380934466</v>
       </c>
       <c r="G9">
-        <v>2.067593306113971</v>
+        <v>2.067593306114109</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.626050629923974</v>
+        <v>5.626050629923887</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.95501652728731</v>
+        <v>18.9550165272873</v>
       </c>
       <c r="N9">
-        <v>13.89076684817241</v>
+        <v>13.8907668481723</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.93586168872255</v>
+        <v>31.93586168872258</v>
       </c>
       <c r="C10">
-        <v>23.42564884966302</v>
+        <v>23.42564884966308</v>
       </c>
       <c r="D10">
-        <v>2.777968811826186</v>
+        <v>2.777968811826389</v>
       </c>
       <c r="E10">
-        <v>6.069054894216416</v>
+        <v>6.069054894216521</v>
       </c>
       <c r="F10">
-        <v>49.94005889561301</v>
+        <v>49.94005889561304</v>
       </c>
       <c r="G10">
-        <v>2.044626565501117</v>
+        <v>2.044626565501385</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.596970619785669</v>
+        <v>5.596970619785679</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>20.56941682237601</v>
+        <v>20.569416822376</v>
       </c>
       <c r="N10">
-        <v>13.565498019246</v>
+        <v>13.56549801924595</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.21591796361257</v>
+        <v>33.21591796361255</v>
       </c>
       <c r="C11">
-        <v>24.3754917312548</v>
+        <v>24.37549173125487</v>
       </c>
       <c r="D11">
-        <v>2.83416576341211</v>
+        <v>2.834165763411911</v>
       </c>
       <c r="E11">
         <v>6.090251504601471</v>
       </c>
       <c r="F11">
-        <v>51.41594843526182</v>
+        <v>51.4159484352619</v>
       </c>
       <c r="G11">
-        <v>2.034160723438985</v>
+        <v>2.034160723439375</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.586882963427837</v>
+        <v>5.586882963427926</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>21.39828710095764</v>
+        <v>21.39828710095765</v>
       </c>
       <c r="N11">
-        <v>13.42469915772448</v>
+        <v>13.42469915772453</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.69520218255199</v>
+        <v>33.69520218255208</v>
       </c>
       <c r="C12">
-        <v>24.73128971463389</v>
+        <v>24.73128971463386</v>
       </c>
       <c r="D12">
-        <v>2.85583124361487</v>
+        <v>2.855831243614803</v>
       </c>
       <c r="E12">
-        <v>6.098763364292545</v>
+        <v>6.098763364292547</v>
       </c>
       <c r="F12">
         <v>51.97819822419304</v>
       </c>
       <c r="G12">
-        <v>2.030186700060008</v>
+        <v>2.030186700059889</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.58354879267819</v>
+        <v>5.583548792678241</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>21.70833965067143</v>
+        <v>21.70833965067148</v>
       </c>
       <c r="N12">
-        <v>13.37253430397627</v>
+        <v>13.37253430397623</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.59221315879979</v>
+        <v>33.59221315879981</v>
       </c>
       <c r="C13">
-        <v>24.65482795171748</v>
+        <v>24.65482795171751</v>
       </c>
       <c r="D13">
-        <v>2.851146769113924</v>
+        <v>2.851146769113991</v>
       </c>
       <c r="E13">
-        <v>6.096908102205974</v>
+        <v>6.09690810220603</v>
       </c>
       <c r="F13">
-        <v>51.85694896449585</v>
+        <v>51.85694896449582</v>
       </c>
       <c r="G13">
-        <v>2.031043204273423</v>
+        <v>2.031043204273288</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.584244663120084</v>
+        <v>5.584244663120089</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>21.64172831315333</v>
+        <v>21.64172831315332</v>
       </c>
       <c r="N13">
-        <v>13.38371542329336</v>
+        <v>13.38371542329333</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.25545496894166</v>
+        <v>33.25545496894176</v>
       </c>
       <c r="C14">
-        <v>24.40483878703615</v>
+        <v>24.40483878703618</v>
       </c>
       <c r="D14">
-        <v>2.835940015377676</v>
+        <v>2.835940015377608</v>
       </c>
       <c r="E14">
-        <v>6.090941877390271</v>
+        <v>6.090941877390333</v>
       </c>
       <c r="F14">
-        <v>51.4621344369784</v>
+        <v>51.46213443697847</v>
       </c>
       <c r="G14">
         <v>2.033834047144555</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.586598709852827</v>
+        <v>5.586598709852905</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>21.42386978513899</v>
+        <v>21.42386978513905</v>
       </c>
       <c r="N14">
         <v>13.42038362246724</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.04848778412212</v>
+        <v>33.04848778412193</v>
       </c>
       <c r="C15">
-        <v>24.25122016025733</v>
+        <v>24.25122016025731</v>
       </c>
       <c r="D15">
-        <v>2.826677960614819</v>
+        <v>2.826677960614549</v>
       </c>
       <c r="E15">
-        <v>6.087351499313728</v>
+        <v>6.087351499313534</v>
       </c>
       <c r="F15">
-        <v>51.22075352610737</v>
+        <v>51.22075352610725</v>
       </c>
       <c r="G15">
-        <v>2.035541841289283</v>
+        <v>2.035541841289418</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.588104994229179</v>
+        <v>5.588104994229098</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>21.28993831923658</v>
+        <v>21.28993831923653</v>
       </c>
       <c r="N15">
-        <v>13.4429981649133</v>
+        <v>13.44299816491332</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.85141634456774</v>
+        <v>31.85141634456782</v>
       </c>
       <c r="C16">
-        <v>23.36300700095511</v>
+        <v>23.36300700095524</v>
       </c>
       <c r="D16">
-        <v>2.774345799257009</v>
+        <v>2.774345799256877</v>
       </c>
       <c r="E16">
-        <v>6.06773587981656</v>
+        <v>6.067735879816514</v>
       </c>
       <c r="F16">
-        <v>49.84404799885582</v>
+        <v>49.84404799885595</v>
       </c>
       <c r="G16">
-        <v>2.045309493449038</v>
+        <v>2.045309493448773</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.597695886138403</v>
+        <v>5.597695886138456</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>20.51469358248865</v>
+        <v>20.51469358248873</v>
       </c>
       <c r="N16">
-        <v>13.5748535775596</v>
+        <v>13.57485357755953</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.10680214215825</v>
+        <v>31.10680214215831</v>
       </c>
       <c r="C17">
-        <v>22.81074256926776</v>
+        <v>22.81074256926795</v>
       </c>
       <c r="D17">
-        <v>2.742845110651189</v>
+        <v>2.742845110651323</v>
       </c>
       <c r="E17">
-        <v>6.056534468130788</v>
+        <v>6.056534468130862</v>
       </c>
       <c r="F17">
-        <v>49.00493669464183</v>
+        <v>49.00493669464178</v>
       </c>
       <c r="G17">
-        <v>2.051291521903037</v>
+        <v>2.051291521903034</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.604406886796556</v>
+        <v>5.604406886796522</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.03191754774257</v>
+        <v>20.03191754774264</v>
       </c>
       <c r="N17">
-        <v>13.65765661164758</v>
+        <v>13.65765661164747</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.67460094941709</v>
+        <v>30.67460094941721</v>
       </c>
       <c r="C18">
-        <v>22.49025953106042</v>
+        <v>22.49025953106043</v>
       </c>
       <c r="D18">
-        <v>2.724925706103924</v>
+        <v>2.724925706104192</v>
       </c>
       <c r="E18">
-        <v>6.050388513374954</v>
+        <v>6.050388513375111</v>
       </c>
       <c r="F18">
-        <v>48.52417266834785</v>
+        <v>48.52417266834792</v>
       </c>
       <c r="G18">
-        <v>2.054731078840876</v>
+        <v>2.054731078840869</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.608560216988252</v>
+        <v>5.60856021698823</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>19.77566724859284</v>
+        <v>19.77566724859286</v>
       </c>
       <c r="N18">
-        <v>13.70594858055524</v>
+        <v>13.70594858055515</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.52757851765467</v>
+        <v>30.5275785176546</v>
       </c>
       <c r="C19">
-        <v>22.38125141977978</v>
+        <v>22.38125141977972</v>
       </c>
       <c r="D19">
-        <v>2.71889064428568</v>
+        <v>2.718890644285544</v>
       </c>
       <c r="E19">
-        <v>6.048357761949244</v>
+        <v>6.048357761949156</v>
       </c>
       <c r="F19">
-        <v>48.36170482055284</v>
+        <v>48.36170482055277</v>
       </c>
       <c r="G19">
-        <v>2.055895686798039</v>
+        <v>2.055895686798172</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.610015881050587</v>
+        <v>5.610015881050619</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>19.70159690792353</v>
+        <v>19.70159690792354</v>
       </c>
       <c r="N19">
-        <v>13.72241050160613</v>
+        <v>13.72241050160608</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>31.18646991444711</v>
       </c>
       <c r="C20">
-        <v>22.86982279861651</v>
+        <v>22.86982279861635</v>
       </c>
       <c r="D20">
-        <v>2.746177330780682</v>
+        <v>2.746177330780547</v>
       </c>
       <c r="E20">
-        <v>6.057695964114766</v>
+        <v>6.057695964114687</v>
       </c>
       <c r="F20">
         <v>49.0940652660622</v>
       </c>
       <c r="G20">
-        <v>2.050654899052862</v>
+        <v>2.050654899052726</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.60366189764045</v>
+        <v>5.603661897640431</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>20.08359200727092</v>
+        <v>20.08359200727088</v>
       </c>
       <c r="N20">
-        <v>13.64877237914219</v>
+        <v>13.64877237914225</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.35451244343616</v>
+        <v>33.35451244343621</v>
       </c>
       <c r="C21">
-        <v>24.47836859435705</v>
+        <v>24.4783685943571</v>
       </c>
       <c r="D21">
-        <v>2.840395512764982</v>
+        <v>2.840395512764786</v>
       </c>
       <c r="E21">
-        <v>6.092680885069611</v>
+        <v>6.092680885069562</v>
       </c>
       <c r="F21">
-        <v>51.57800527047021</v>
+        <v>51.57800527047023</v>
       </c>
       <c r="G21">
         <v>2.033014675158443</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.585893788126537</v>
+        <v>5.585893788126527</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>21.48796088707764</v>
+        <v>21.48796088707769</v>
       </c>
       <c r="N21">
-        <v>13.40958088676637</v>
+        <v>13.4095808867663</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.74000983092417</v>
+        <v>34.74000983092411</v>
       </c>
       <c r="C22">
-        <v>25.50723116150031</v>
+        <v>25.50723116150018</v>
       </c>
       <c r="D22">
-        <v>2.904260062474556</v>
+        <v>2.904260062474487</v>
       </c>
       <c r="E22">
-        <v>6.118390000826772</v>
+        <v>6.118390000826747</v>
       </c>
       <c r="F22">
-        <v>53.22135206790099</v>
+        <v>53.22135206790097</v>
       </c>
       <c r="G22">
         <v>2.021417782208999</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.577132518034405</v>
+        <v>5.57713251803438</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>22.38371360416004</v>
+        <v>22.38371360416</v>
       </c>
       <c r="N22">
-        <v>13.26005239034213</v>
+        <v>13.26005239034212</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.00323465863952</v>
+        <v>34.00323465863943</v>
       </c>
       <c r="C23">
-        <v>24.96000666040777</v>
+        <v>24.96000666040782</v>
       </c>
       <c r="D23">
-        <v>2.869937301006757</v>
+        <v>2.869937301006761</v>
       </c>
       <c r="E23">
-        <v>6.104397653740733</v>
+        <v>6.104397653740691</v>
       </c>
       <c r="F23">
-        <v>52.34224294813724</v>
+        <v>52.34224294813718</v>
       </c>
       <c r="G23">
-        <v>2.02761656003154</v>
+        <v>2.027616560031272</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.581535076518771</v>
+        <v>5.581535076518782</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>21.90752747693896</v>
+        <v>21.90752747693894</v>
       </c>
       <c r="N23">
-        <v>13.33918850997095</v>
+        <v>13.33918850997093</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.15046496004055</v>
+        <v>31.15046496004052</v>
       </c>
       <c r="C24">
-        <v>22.84312193472888</v>
+        <v>22.84312193472883</v>
       </c>
       <c r="D24">
-        <v>2.744670245208031</v>
+        <v>2.744670245208165</v>
       </c>
       <c r="E24">
-        <v>6.057169938497258</v>
+        <v>6.057169938497279</v>
       </c>
       <c r="F24">
-        <v>49.05376512386483</v>
+        <v>49.05376512386475</v>
       </c>
       <c r="G24">
-        <v>2.050942714367487</v>
+        <v>2.050942714367359</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.603997790629349</v>
+        <v>5.603997790629333</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.06023896062334</v>
+        <v>20.06023896062332</v>
       </c>
       <c r="N24">
-        <v>13.65278680844208</v>
+        <v>13.65278680844211</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.92220809982132</v>
+        <v>27.92220809982141</v>
       </c>
       <c r="C25">
-        <v>20.4502602400125</v>
+        <v>20.45026024001258</v>
       </c>
       <c r="D25">
-        <v>2.616958325310491</v>
+        <v>2.616958325310829</v>
       </c>
       <c r="E25">
-        <v>6.017489175681277</v>
+        <v>6.017489175681336</v>
       </c>
       <c r="F25">
-        <v>45.57780412440156</v>
+        <v>45.57780412440152</v>
       </c>
       <c r="G25">
-        <v>2.076083102225703</v>
+        <v>2.076083102226232</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.639342457366667</v>
+        <v>5.639342457366646</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.41088669693896</v>
+        <v>18.41088669693895</v>
       </c>
       <c r="N25">
-        <v>14.0162372386195</v>
+        <v>14.01623723861936</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_30/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_30/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1210 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.45778831486539</v>
+        <v>19.62715880801042</v>
       </c>
       <c r="C2">
-        <v>18.58225104419706</v>
+        <v>15.89984385845148</v>
       </c>
       <c r="D2">
-        <v>2.527107194563972</v>
+        <v>5.020586160398721</v>
       </c>
       <c r="E2">
-        <v>5.997053235622323</v>
+        <v>7.836159118182233</v>
       </c>
       <c r="F2">
-        <v>43.0708430686679</v>
+        <v>27.43688994507166</v>
       </c>
       <c r="G2">
-        <v>2.094828631267971</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>34.99440929238246</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.768692124516416</v>
       </c>
       <c r="J2">
-        <v>5.673876805832141</v>
+        <v>11.26765855318746</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>16.04917608386443</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.672231558715161</v>
       </c>
       <c r="M2">
-        <v>17.20742497498423</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>14.30224321913356</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15.01032478523538</v>
+      </c>
+      <c r="P2">
+        <v>12.28819957098507</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.81115023169113</v>
+        <v>18.29679955942217</v>
       </c>
       <c r="C3">
-        <v>17.28833065072422</v>
+        <v>14.80466910775438</v>
       </c>
       <c r="D3">
-        <v>2.467946778512687</v>
+        <v>4.919576788718678</v>
       </c>
       <c r="E3">
-        <v>5.988295357230402</v>
+        <v>7.759315185328005</v>
       </c>
       <c r="F3">
-        <v>41.40393906720654</v>
+        <v>26.65465390162347</v>
       </c>
       <c r="G3">
-        <v>2.107782789061512</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>33.67455135068687</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.546812547891071</v>
       </c>
       <c r="J3">
-        <v>5.702152416465994</v>
+        <v>11.13376925961888</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>15.97445402006235</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.70199384566646</v>
       </c>
       <c r="M3">
-        <v>16.37966341958095</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>14.50639848540378</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>14.25752773007328</v>
+      </c>
+      <c r="P3">
+        <v>12.46979178097194</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.76623360052568</v>
+        <v>17.42857459144906</v>
       </c>
       <c r="C4">
-        <v>16.47717493539157</v>
+        <v>14.0979307334726</v>
       </c>
       <c r="D4">
-        <v>2.432233434064964</v>
+        <v>4.859647812001555</v>
       </c>
       <c r="E4">
-        <v>5.985315895909694</v>
+        <v>7.716773425502741</v>
       </c>
       <c r="F4">
-        <v>40.39698571014488</v>
+        <v>26.18040581417128</v>
       </c>
       <c r="G4">
-        <v>2.115889443340645</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>32.86147306326657</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.539410759695962</v>
       </c>
       <c r="J4">
-        <v>5.721791399027255</v>
+        <v>11.05674566331184</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>15.93600566885382</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5.722565504114087</v>
       </c>
       <c r="M4">
-        <v>15.86634332023442</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>14.63656212494039</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>13.78026210574701</v>
+      </c>
+      <c r="P4">
+        <v>12.58342341412492</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.33204466944167</v>
+        <v>17.05517512707056</v>
       </c>
       <c r="C5">
-        <v>16.13913605847579</v>
+        <v>13.80925800834895</v>
       </c>
       <c r="D5">
-        <v>2.417801691538415</v>
+        <v>4.83776175921157</v>
       </c>
       <c r="E5">
-        <v>5.984689114605738</v>
+        <v>7.701440109372036</v>
       </c>
       <c r="F5">
-        <v>39.99098890054372</v>
+        <v>25.97880874105547</v>
       </c>
       <c r="G5">
-        <v>2.119235293326763</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>32.51103287996323</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.603736001837096</v>
       </c>
       <c r="J5">
-        <v>5.730350289818222</v>
+        <v>11.02314598019389</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>15.9145904264632</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.731391091681832</v>
       </c>
       <c r="M5">
-        <v>15.65608236511781</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>14.69078041933808</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>13.58200850950248</v>
+      </c>
+      <c r="P5">
+        <v>12.63020590828943</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.25944804865328</v>
+        <v>16.98433425998274</v>
       </c>
       <c r="C6">
-        <v>16.08255413632605</v>
+        <v>13.77059991372649</v>
       </c>
       <c r="D6">
-        <v>2.415411789979597</v>
+        <v>4.836592665555315</v>
       </c>
       <c r="E6">
-        <v>5.984620074878389</v>
+        <v>7.700002052870285</v>
       </c>
       <c r="F6">
-        <v>39.92384238399694</v>
+        <v>25.93313470855906</v>
       </c>
       <c r="G6">
-        <v>2.119793533130542</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>32.42976443853052</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.618732344869374</v>
       </c>
       <c r="J6">
-        <v>5.731804593107891</v>
+        <v>11.01336442390003</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>15.90191624274493</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5.732742222621821</v>
       </c>
       <c r="M6">
-        <v>15.6211102165451</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>14.69985344872321</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>13.54862314321362</v>
+      </c>
+      <c r="P6">
+        <v>12.63792156443445</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.76041163572182</v>
+        <v>17.40213966871643</v>
       </c>
       <c r="C7">
-        <v>16.47264628641151</v>
+        <v>14.12014806589654</v>
       </c>
       <c r="D7">
-        <v>2.432038349572521</v>
+        <v>4.865939894771536</v>
       </c>
       <c r="E7">
-        <v>5.985305084610507</v>
+        <v>7.719388514135367</v>
       </c>
       <c r="F7">
-        <v>40.39149241466356</v>
+        <v>26.14435657572535</v>
       </c>
       <c r="G7">
-        <v>2.115934390362154</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>32.79447624763282</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.551570652916046</v>
       </c>
       <c r="J7">
-        <v>5.721904597849353</v>
+        <v>11.04464051373723</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>15.91054269842313</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5.722279255669848</v>
       </c>
       <c r="M7">
-        <v>15.86351174049635</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>14.63728861251628</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>13.77689252458344</v>
+      </c>
+      <c r="P7">
+        <v>12.58388873740538</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.89711230476561</v>
+        <v>19.15288540724622</v>
       </c>
       <c r="C8">
-        <v>18.12873438543666</v>
+        <v>15.56093057662791</v>
       </c>
       <c r="D8">
-        <v>2.50656144567447</v>
+        <v>4.993829138176154</v>
       </c>
       <c r="E8">
-        <v>5.99352613554206</v>
+        <v>7.81238436448483</v>
       </c>
       <c r="F8">
-        <v>42.49275643082795</v>
+        <v>27.12337863398784</v>
       </c>
       <c r="G8">
-        <v>2.099265992940149</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>34.4612965420605</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.695116064665694</v>
       </c>
       <c r="J8">
-        <v>5.683142870509306</v>
+        <v>11.20521234976226</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>15.98872014612482</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.681478787517139</v>
       </c>
       <c r="M8">
-        <v>16.92316756435011</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>14.37161448072067</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>14.753055092828</v>
+      </c>
+      <c r="P8">
+        <v>12.35049532462921</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.03124195896991</v>
+        <v>22.21639100455423</v>
       </c>
       <c r="C9">
-        <v>21.27208440023763</v>
+        <v>18.07622813681894</v>
       </c>
       <c r="D9">
-        <v>2.659197982081719</v>
+        <v>5.248746838078704</v>
       </c>
       <c r="E9">
-        <v>6.029436129031667</v>
+        <v>8.027057962454</v>
       </c>
       <c r="F9">
-        <v>46.74022380934466</v>
+        <v>29.13985621469332</v>
       </c>
       <c r="G9">
-        <v>2.067593306114109</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>37.79676606496379</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.226970205914473</v>
       </c>
       <c r="J9">
-        <v>5.626050629923887</v>
+        <v>11.58241379480397</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>16.24893746274746</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5.621094299924547</v>
       </c>
       <c r="M9">
-        <v>18.9550165272873</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>13.8907668481723</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>16.54109718059021</v>
+      </c>
+      <c r="P9">
+        <v>11.90863151734849</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.93586168872258</v>
+        <v>24.21788057564884</v>
       </c>
       <c r="C10">
-        <v>23.42564884966308</v>
+        <v>19.77500649604782</v>
       </c>
       <c r="D10">
-        <v>2.777968811826389</v>
+        <v>5.447054146182242</v>
       </c>
       <c r="E10">
-        <v>6.069054894216521</v>
+        <v>8.209366336868666</v>
       </c>
       <c r="F10">
-        <v>49.94005889561304</v>
+        <v>30.62049708213216</v>
       </c>
       <c r="G10">
-        <v>2.044626565501385</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>40.17849976036359</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.603206250436792</v>
       </c>
       <c r="J10">
-        <v>5.596970619785679</v>
+        <v>11.88046101175863</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>16.47025003168703</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>5.589065872568286</v>
       </c>
       <c r="M10">
-        <v>20.569416822376</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>13.56549801924595</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>17.85939615297288</v>
+      </c>
+      <c r="P10">
+        <v>11.59297930214194</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.21591796361255</v>
+        <v>25.05217963364381</v>
       </c>
       <c r="C11">
-        <v>24.37549173125487</v>
+        <v>20.54392889128181</v>
       </c>
       <c r="D11">
-        <v>2.834165763411911</v>
+        <v>5.548119426566116</v>
       </c>
       <c r="E11">
-        <v>6.090251504601471</v>
+        <v>8.301707783082263</v>
       </c>
       <c r="F11">
-        <v>51.4159484352619</v>
+        <v>31.24961554297036</v>
       </c>
       <c r="G11">
-        <v>2.034160723439375</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>41.16854498776996</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.773833624965765</v>
       </c>
       <c r="J11">
-        <v>5.586882963427926</v>
+        <v>12.00448439392641</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>16.54172544051824</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>5.576810098196463</v>
       </c>
       <c r="M11">
-        <v>21.39828710095765</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>13.42469915772453</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>18.49867853590431</v>
+      </c>
+      <c r="P11">
+        <v>11.4524541761004</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.69520218255208</v>
+        <v>25.37483108611077</v>
       </c>
       <c r="C12">
-        <v>24.73128971463386</v>
+        <v>20.81384519876213</v>
       </c>
       <c r="D12">
-        <v>2.855831243614803</v>
+        <v>5.581473393569314</v>
       </c>
       <c r="E12">
-        <v>6.098763364292547</v>
+        <v>8.335116316594847</v>
       </c>
       <c r="F12">
-        <v>51.97819822419304</v>
+        <v>31.51292377581733</v>
       </c>
       <c r="G12">
-        <v>2.030186700059889</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>41.58638810958207</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.836751918010155</v>
       </c>
       <c r="J12">
-        <v>5.583548792678241</v>
+        <v>12.06174465948823</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>16.59141692734353</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>5.572958800821251</v>
       </c>
       <c r="M12">
-        <v>21.70833965067148</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>13.37253430397623</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>18.73682822301737</v>
+      </c>
+      <c r="P12">
+        <v>11.39879773775283</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.59221315879981</v>
+        <v>25.3083888653217</v>
       </c>
       <c r="C13">
-        <v>24.65482795171751</v>
+        <v>20.75270627638271</v>
       </c>
       <c r="D13">
-        <v>2.851146769113991</v>
+        <v>5.573271270088046</v>
       </c>
       <c r="E13">
-        <v>6.09690810220603</v>
+        <v>8.327429626865801</v>
       </c>
       <c r="F13">
-        <v>51.85694896449582</v>
+        <v>31.46114181036686</v>
       </c>
       <c r="G13">
-        <v>2.031043204273288</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>41.50527941715858</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.822913067525346</v>
       </c>
       <c r="J13">
-        <v>5.584244663120089</v>
+        <v>12.05124944481987</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>16.58485829311642</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.573836971045524</v>
       </c>
       <c r="M13">
-        <v>21.64172831315332</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>13.38371542329333</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>18.68593531021365</v>
+      </c>
+      <c r="P13">
+        <v>11.41019414997771</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.25545496894176</v>
+        <v>25.08003601519638</v>
       </c>
       <c r="C14">
-        <v>24.40483878703618</v>
+        <v>20.5648508571953</v>
       </c>
       <c r="D14">
-        <v>2.835940015377608</v>
+        <v>5.550428579706136</v>
       </c>
       <c r="E14">
-        <v>6.090941877390333</v>
+        <v>8.304246067430682</v>
       </c>
       <c r="F14">
-        <v>51.46213443697847</v>
+        <v>31.27338191524612</v>
       </c>
       <c r="G14">
-        <v>2.033834047144555</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>41.20672049157416</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.778880209102145</v>
       </c>
       <c r="J14">
-        <v>5.586598709852905</v>
+        <v>12.00997699575407</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>16.54757530301634</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.576513471575366</v>
       </c>
       <c r="M14">
-        <v>21.42386978513905</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>13.42038362246724</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>18.51844583868251</v>
+      </c>
+      <c r="P14">
+        <v>11.4479734127561</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.04848778412193</v>
+        <v>24.93377222577598</v>
       </c>
       <c r="C15">
-        <v>24.25122016025731</v>
+        <v>20.45561580452296</v>
       </c>
       <c r="D15">
-        <v>2.826677960614549</v>
+        <v>5.538468252946747</v>
       </c>
       <c r="E15">
-        <v>6.087351499313534</v>
+        <v>8.291050528961968</v>
       </c>
       <c r="F15">
-        <v>51.22075352610725</v>
+        <v>31.14857287928078</v>
       </c>
       <c r="G15">
-        <v>2.035541841289418</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>41.00605253135605</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.752560234376406</v>
       </c>
       <c r="J15">
-        <v>5.588104994229098</v>
+        <v>11.9810941744476</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>16.51661609196978</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.578075851248206</v>
       </c>
       <c r="M15">
-        <v>21.28993831923653</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>13.44299816491332</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>18.41486200018915</v>
+      </c>
+      <c r="P15">
+        <v>11.47142384929163</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.85141634456782</v>
+        <v>24.11536001470968</v>
       </c>
       <c r="C16">
-        <v>23.36300700095524</v>
+        <v>19.77976850494264</v>
       </c>
       <c r="D16">
-        <v>2.774345799256877</v>
+        <v>5.457588678961378</v>
       </c>
       <c r="E16">
-        <v>6.067735879816514</v>
+        <v>8.211144519127185</v>
       </c>
       <c r="F16">
-        <v>49.84404799885595</v>
+        <v>30.49551368823654</v>
       </c>
       <c r="G16">
-        <v>2.045309493448773</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>39.96300695359337</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.597018159540642</v>
       </c>
       <c r="J16">
-        <v>5.597695886138456</v>
+        <v>11.84090580669758</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>16.39526803203407</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.588782033366651</v>
       </c>
       <c r="M16">
-        <v>20.51469358248873</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>13.57485357755953</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>17.81384265726013</v>
+      </c>
+      <c r="P16">
+        <v>11.60433055450608</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.10680214215831</v>
+        <v>23.60023348485421</v>
       </c>
       <c r="C17">
-        <v>22.81074256926795</v>
+        <v>19.35674253444429</v>
       </c>
       <c r="D17">
-        <v>2.742845110651323</v>
+        <v>5.40829831025725</v>
       </c>
       <c r="E17">
-        <v>6.056534468130862</v>
+        <v>8.163422619892181</v>
       </c>
       <c r="F17">
-        <v>49.00493669464178</v>
+        <v>30.09522405815418</v>
       </c>
       <c r="G17">
-        <v>2.051291521903034</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>39.319985996243</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.501106188121392</v>
       </c>
       <c r="J17">
-        <v>5.604406886796522</v>
+        <v>11.75651645445974</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>16.32372379058388</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.596126898912</v>
       </c>
       <c r="M17">
-        <v>20.03191754774264</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>13.65765661164747</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>17.43641350636523</v>
+      </c>
+      <c r="P17">
+        <v>11.68621455170726</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.67460094941721</v>
+        <v>23.31377745607702</v>
       </c>
       <c r="C18">
-        <v>22.49025953106043</v>
+        <v>19.09286357908385</v>
       </c>
       <c r="D18">
-        <v>2.724925706104192</v>
+        <v>5.37480647524144</v>
       </c>
       <c r="E18">
-        <v>6.050388513375111</v>
+        <v>8.134089453097856</v>
       </c>
       <c r="F18">
-        <v>48.52417266834792</v>
+        <v>29.89105738821374</v>
       </c>
       <c r="G18">
-        <v>2.054731078840869</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>38.99573110572586</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.443326544576066</v>
       </c>
       <c r="J18">
-        <v>5.60856021698823</v>
+        <v>11.71822602217889</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>16.30507957646073</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.600977934215452</v>
       </c>
       <c r="M18">
-        <v>19.77566724859286</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>13.70594858055515</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>17.23406832235045</v>
+      </c>
+      <c r="P18">
+        <v>11.73285625982921</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.5275785176546</v>
+        <v>23.20467289062722</v>
       </c>
       <c r="C19">
-        <v>22.38125141977972</v>
+        <v>19.01640088754829</v>
       </c>
       <c r="D19">
-        <v>2.718890644285544</v>
+        <v>5.367547368178991</v>
       </c>
       <c r="E19">
-        <v>6.048357761949156</v>
+        <v>8.126057900014494</v>
       </c>
       <c r="F19">
-        <v>48.36170482055277</v>
+        <v>29.80201474337591</v>
       </c>
       <c r="G19">
-        <v>2.055895686798172</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>38.8498180817156</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.425519385445527</v>
       </c>
       <c r="J19">
-        <v>5.610015881050619</v>
+        <v>11.69791783022441</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>16.2823933754345</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>5.602399471080067</v>
       </c>
       <c r="M19">
-        <v>19.70159690792354</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>13.72241050160608</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>17.17160268178293</v>
+      </c>
+      <c r="P19">
+        <v>11.74913163452516</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.18646991444711</v>
+        <v>23.65670558414749</v>
       </c>
       <c r="C20">
-        <v>22.86982279861635</v>
+        <v>19.40074588687154</v>
       </c>
       <c r="D20">
-        <v>2.746177330780547</v>
+        <v>5.413121359132962</v>
       </c>
       <c r="E20">
-        <v>6.057695964114687</v>
+        <v>8.168268954241757</v>
       </c>
       <c r="F20">
-        <v>49.0940652660622</v>
+        <v>30.1398365235494</v>
       </c>
       <c r="G20">
-        <v>2.050654899052726</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>39.39218112820807</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.511143581287198</v>
       </c>
       <c r="J20">
-        <v>5.603661897640431</v>
+        <v>11.76619380085959</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>16.33291198936578</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>5.595343304008135</v>
       </c>
       <c r="M20">
-        <v>20.08359200727088</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>13.64877237914225</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>17.47699932361369</v>
+      </c>
+      <c r="P20">
+        <v>11.67743462027445</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.35451244343621</v>
+        <v>25.13195925521067</v>
       </c>
       <c r="C21">
-        <v>24.4783685943571</v>
+        <v>20.63827224089587</v>
       </c>
       <c r="D21">
-        <v>2.840395512764786</v>
+        <v>5.562816389171027</v>
       </c>
       <c r="E21">
-        <v>6.092680885069562</v>
+        <v>8.313611216829505</v>
       </c>
       <c r="F21">
-        <v>51.57800527047023</v>
+        <v>31.30081614070995</v>
       </c>
       <c r="G21">
-        <v>2.033014675158443</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>41.2449753547744</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.793787720796721</v>
       </c>
       <c r="J21">
-        <v>5.585893788126527</v>
+        <v>12.01154048071375</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>16.53483714375451</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>5.575328203379344</v>
       </c>
       <c r="M21">
-        <v>21.48796088707769</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>13.4095808867663</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>18.56674932170968</v>
+      </c>
+      <c r="P21">
+        <v>11.4377129877141</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.74000983092411</v>
+        <v>26.07326325275088</v>
       </c>
       <c r="C22">
-        <v>25.50723116150018</v>
+        <v>21.39690514720465</v>
       </c>
       <c r="D22">
-        <v>2.904260062474487</v>
+        <v>5.654426175606004</v>
       </c>
       <c r="E22">
-        <v>6.118390000826747</v>
+        <v>8.409600290587861</v>
       </c>
       <c r="F22">
-        <v>53.22135206790097</v>
+        <v>32.09540275477455</v>
       </c>
       <c r="G22">
-        <v>2.021417782208999</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>42.50773522684615</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.974389090309963</v>
       </c>
       <c r="J22">
-        <v>5.57713251803438</v>
+        <v>12.19057729161454</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>16.70659452218693</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>5.565368501432874</v>
       </c>
       <c r="M22">
-        <v>22.38371360416</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>13.26005239034212</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>19.25201633224509</v>
+      </c>
+      <c r="P22">
+        <v>11.28100789500531</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.00323465863943</v>
+        <v>25.59303334846139</v>
       </c>
       <c r="C23">
-        <v>24.96000666040782</v>
+        <v>20.97286333123855</v>
       </c>
       <c r="D23">
-        <v>2.869937301006761</v>
+        <v>5.598636922641768</v>
       </c>
       <c r="E23">
-        <v>6.104397653740691</v>
+        <v>8.354884311703014</v>
       </c>
       <c r="F23">
-        <v>52.34224294813718</v>
+        <v>31.70447391033115</v>
       </c>
       <c r="G23">
-        <v>2.027616560031272</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>41.89399969977097</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.876138888569513</v>
       </c>
       <c r="J23">
-        <v>5.581535076518782</v>
+        <v>12.10718222911536</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>16.64244736713893</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>5.570902014652988</v>
       </c>
       <c r="M23">
-        <v>21.90752747693894</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>13.33918850997093</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>18.89006316709473</v>
+      </c>
+      <c r="P23">
+        <v>11.36352096702336</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.15046496004052</v>
+        <v>23.6618624990444</v>
       </c>
       <c r="C24">
-        <v>22.84312193472883</v>
+        <v>19.34442209683991</v>
       </c>
       <c r="D24">
-        <v>2.744670245208165</v>
+        <v>5.399862253865974</v>
       </c>
       <c r="E24">
-        <v>6.057169938497279</v>
+        <v>8.161102862287656</v>
       </c>
       <c r="F24">
-        <v>49.05376512386475</v>
+        <v>30.17408084975728</v>
       </c>
       <c r="G24">
-        <v>2.050942714367359</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>39.45745892207856</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.502426950363856</v>
       </c>
       <c r="J24">
-        <v>5.603997790629333</v>
+        <v>11.78218096489377</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>16.37410227709053</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>5.596432060392166</v>
       </c>
       <c r="M24">
-        <v>20.06023896062332</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>13.65278680844211</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>17.46066276108165</v>
+      </c>
+      <c r="P24">
+        <v>11.68011244908115</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.92220809982141</v>
+        <v>21.39804169475339</v>
       </c>
       <c r="C25">
-        <v>20.45026024001258</v>
+        <v>17.46274732992912</v>
       </c>
       <c r="D25">
-        <v>2.616958325310829</v>
+        <v>5.18943320212987</v>
       </c>
       <c r="E25">
-        <v>6.017489175681336</v>
+        <v>7.9698702587227</v>
       </c>
       <c r="F25">
-        <v>45.57780412440152</v>
+        <v>28.53580831885488</v>
       </c>
       <c r="G25">
-        <v>2.076083102226232</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>36.79976727967445</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.089088164381435</v>
       </c>
       <c r="J25">
-        <v>5.639342457366646</v>
+        <v>11.45551848920745</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>16.12674155887639</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>5.634587945973103</v>
       </c>
       <c r="M25">
-        <v>18.41088669693895</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>14.01623723861936</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>16.07070888748557</v>
+      </c>
+      <c r="P25">
+        <v>12.0273126429539</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_30/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_30/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1204 +421,1354 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.62715880801042</v>
+        <v>19.11647202638408</v>
       </c>
       <c r="C2">
-        <v>15.89984385845148</v>
+        <v>16.47984399888557</v>
       </c>
       <c r="D2">
-        <v>5.020586160398721</v>
+        <v>5.215360456456528</v>
       </c>
       <c r="E2">
-        <v>7.836159118182233</v>
+        <v>7.919545543300026</v>
       </c>
       <c r="F2">
-        <v>27.43688994507166</v>
+        <v>26.48814970157379</v>
       </c>
       <c r="G2">
-        <v>34.99440929238246</v>
+        <v>32.77935821571383</v>
       </c>
       <c r="I2">
-        <v>2.768692124516416</v>
+        <v>2.802207968652109</v>
       </c>
       <c r="J2">
-        <v>11.26765855318746</v>
+        <v>11.3454161642637</v>
       </c>
       <c r="K2">
-        <v>16.04917608386443</v>
+        <v>15.21766785713922</v>
       </c>
       <c r="L2">
-        <v>5.672231558715161</v>
+        <v>13.16631912223139</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>9.476859751961451</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>5.656455799284996</v>
       </c>
       <c r="O2">
-        <v>15.01032478523538</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>12.28819957098507</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>14.99434103778534</v>
+      </c>
+      <c r="R2">
+        <v>12.24642742790035</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.29679955942217</v>
+        <v>17.86549337813124</v>
       </c>
       <c r="C3">
-        <v>14.80466910775438</v>
+        <v>15.30668886051623</v>
       </c>
       <c r="D3">
-        <v>4.919576788718678</v>
+        <v>5.097330875731733</v>
       </c>
       <c r="E3">
-        <v>7.759315185328005</v>
+        <v>7.837238940525075</v>
       </c>
       <c r="F3">
-        <v>26.65465390162347</v>
+        <v>25.80160238588991</v>
       </c>
       <c r="G3">
-        <v>33.67455135068687</v>
+        <v>31.65405046691391</v>
       </c>
       <c r="I3">
-        <v>2.546812547891071</v>
+        <v>2.610856547206718</v>
       </c>
       <c r="J3">
-        <v>11.13376925961888</v>
+        <v>11.20191263895166</v>
       </c>
       <c r="K3">
-        <v>15.97445402006235</v>
+        <v>15.20910872865116</v>
       </c>
       <c r="L3">
-        <v>5.70199384566646</v>
+        <v>13.26568379715419</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.344208559509253</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>5.687693706645399</v>
       </c>
       <c r="O3">
-        <v>14.25752773007328</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>12.46979178097194</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>14.24034121082669</v>
+      </c>
+      <c r="R3">
+        <v>12.4004618293038</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.42857459144906</v>
+        <v>17.04834807263139</v>
       </c>
       <c r="C4">
-        <v>14.0979307334726</v>
+        <v>14.54865874579929</v>
       </c>
       <c r="D4">
-        <v>4.859647812001555</v>
+        <v>5.027306336399014</v>
       </c>
       <c r="E4">
-        <v>7.716773425502741</v>
+        <v>7.791679203281878</v>
       </c>
       <c r="F4">
-        <v>26.18040581417128</v>
+        <v>25.38442060968424</v>
       </c>
       <c r="G4">
-        <v>32.86147306326657</v>
+        <v>30.96537486243204</v>
       </c>
       <c r="I4">
-        <v>2.539410759695962</v>
+        <v>2.490254776606505</v>
       </c>
       <c r="J4">
-        <v>11.05674566331184</v>
+        <v>11.11476144724074</v>
       </c>
       <c r="K4">
-        <v>15.93600566885382</v>
+        <v>15.20888141602219</v>
       </c>
       <c r="L4">
-        <v>5.722565504114087</v>
+        <v>13.32565299705817</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.288485037945286</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>5.70915806602411</v>
       </c>
       <c r="O4">
-        <v>13.78026210574701</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>12.58342341412492</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>13.76130395288603</v>
+      </c>
+      <c r="R4">
+        <v>12.49765605467136</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.05517512707056</v>
+        <v>16.69656250426701</v>
       </c>
       <c r="C5">
-        <v>13.80925800834895</v>
+        <v>14.23815069254523</v>
       </c>
       <c r="D5">
-        <v>4.83776175921157</v>
+        <v>5.001405285429206</v>
       </c>
       <c r="E5">
-        <v>7.701440109372036</v>
+        <v>7.775196749929375</v>
       </c>
       <c r="F5">
-        <v>25.97880874105547</v>
+        <v>25.20590123797254</v>
       </c>
       <c r="G5">
-        <v>32.51103287996323</v>
+        <v>30.66719759856158</v>
       </c>
       <c r="I5">
-        <v>2.603736001837096</v>
+        <v>2.514699933454783</v>
       </c>
       <c r="J5">
-        <v>11.02314598019389</v>
+        <v>11.0761060625447</v>
       </c>
       <c r="K5">
-        <v>15.9145904264632</v>
+        <v>15.20290828790301</v>
       </c>
       <c r="L5">
-        <v>5.731391091681832</v>
+        <v>13.34377796392301</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.267594157724483</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5.718348530974681</v>
       </c>
       <c r="O5">
-        <v>13.58200850950248</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>12.63020590828943</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>13.56206285441154</v>
+      </c>
+      <c r="R5">
+        <v>12.53805705739536</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.98433425998274</v>
+        <v>16.62958666456318</v>
       </c>
       <c r="C6">
-        <v>13.77059991372649</v>
+        <v>14.19571773321967</v>
       </c>
       <c r="D6">
-        <v>4.836592665555315</v>
+        <v>4.99957261595786</v>
       </c>
       <c r="E6">
-        <v>7.700002052870285</v>
+        <v>7.773565132752826</v>
       </c>
       <c r="F6">
-        <v>25.93313470855906</v>
+        <v>25.16439719491444</v>
       </c>
       <c r="G6">
-        <v>32.42976443853052</v>
+        <v>30.59522594017932</v>
       </c>
       <c r="I6">
-        <v>2.618732344869374</v>
+        <v>2.529110829116109</v>
       </c>
       <c r="J6">
-        <v>11.01336442390003</v>
+        <v>11.06555384915817</v>
       </c>
       <c r="K6">
-        <v>15.90191624274493</v>
+        <v>15.19333353244096</v>
       </c>
       <c r="L6">
-        <v>5.732742222621821</v>
+        <v>13.33938783511927</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.258780521085288</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5.719765047891038</v>
       </c>
       <c r="O6">
-        <v>13.54862314321362</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>12.63792156443445</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>13.52849487847253</v>
+      </c>
+      <c r="R6">
+        <v>12.54497507615416</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.40213966871643</v>
+        <v>17.01445971651189</v>
       </c>
       <c r="C7">
-        <v>14.12014806589654</v>
+        <v>14.55467523743111</v>
       </c>
       <c r="D7">
-        <v>4.865939894771536</v>
+        <v>5.038459472316747</v>
       </c>
       <c r="E7">
-        <v>7.719388514135367</v>
+        <v>7.797007340255284</v>
       </c>
       <c r="F7">
-        <v>26.14435657572535</v>
+        <v>25.32805128189236</v>
       </c>
       <c r="G7">
-        <v>32.79447624763282</v>
+        <v>30.98305972887632</v>
       </c>
       <c r="I7">
-        <v>2.551570652916046</v>
+        <v>2.492212774846038</v>
       </c>
       <c r="J7">
-        <v>11.04464051373723</v>
+        <v>11.04964745967682</v>
       </c>
       <c r="K7">
-        <v>15.91054269842313</v>
+        <v>15.17521719960316</v>
       </c>
       <c r="L7">
-        <v>5.722279255669848</v>
+        <v>13.29767086153782</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.265278731338057</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>5.708952712868031</v>
       </c>
       <c r="O7">
-        <v>13.77689252458344</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>12.58388873740538</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>13.75361017771298</v>
+      </c>
+      <c r="R7">
+        <v>12.49913529105692</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.15288540724622</v>
+        <v>18.64422078646718</v>
       </c>
       <c r="C8">
-        <v>15.56093057662791</v>
+        <v>16.06669234884343</v>
       </c>
       <c r="D8">
-        <v>4.993829138176154</v>
+        <v>5.198670119537058</v>
       </c>
       <c r="E8">
-        <v>7.81238436448483</v>
+        <v>7.902850365027072</v>
       </c>
       <c r="F8">
-        <v>27.12337863398784</v>
+        <v>26.13964236621174</v>
       </c>
       <c r="G8">
-        <v>34.4612965420605</v>
+        <v>32.57761731397652</v>
       </c>
       <c r="I8">
-        <v>2.695116064665694</v>
+        <v>2.737861814490192</v>
       </c>
       <c r="J8">
-        <v>11.20521234976226</v>
+        <v>11.10752509479467</v>
       </c>
       <c r="K8">
-        <v>15.98872014612482</v>
+        <v>15.14988771004158</v>
       </c>
       <c r="L8">
-        <v>5.681478787517139</v>
+        <v>13.15027151825296</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>9.37831668043931</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>5.666445102915153</v>
       </c>
       <c r="O8">
-        <v>14.753055092828</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>12.35049532462921</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>14.7233080831625</v>
+      </c>
+      <c r="R8">
+        <v>12.30193849511602</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.21639100455423</v>
+        <v>21.51805048215447</v>
       </c>
       <c r="C9">
-        <v>18.07622813681894</v>
+        <v>18.75215086337981</v>
       </c>
       <c r="D9">
-        <v>5.248746838078704</v>
+        <v>5.500953199263908</v>
       </c>
       <c r="E9">
-        <v>8.027057962454</v>
+        <v>8.135106617019741</v>
       </c>
       <c r="F9">
-        <v>29.13985621469332</v>
+        <v>27.8949021696674</v>
       </c>
       <c r="G9">
-        <v>37.79676606496379</v>
+        <v>35.50535036033657</v>
       </c>
       <c r="I9">
-        <v>3.226970205914473</v>
+        <v>3.194815257411763</v>
       </c>
       <c r="J9">
-        <v>11.58241379480397</v>
+        <v>11.44182337026655</v>
       </c>
       <c r="K9">
-        <v>16.24893746274746</v>
+        <v>15.2212460845253</v>
       </c>
       <c r="L9">
-        <v>5.621094299924547</v>
+        <v>12.91603681323282</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>9.857547601686626</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>5.602333514003148</v>
       </c>
       <c r="O9">
-        <v>16.54109718059021</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>11.90863151734849</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>16.50650310125178</v>
+      </c>
+      <c r="R9">
+        <v>11.93273735424023</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.21788057564884</v>
+        <v>23.35347347451489</v>
       </c>
       <c r="C10">
-        <v>19.77500649604782</v>
+        <v>20.49081279432695</v>
       </c>
       <c r="D10">
-        <v>5.447054146182242</v>
+        <v>5.760649726940784</v>
       </c>
       <c r="E10">
-        <v>8.209366336868666</v>
+        <v>8.346858258202719</v>
       </c>
       <c r="F10">
-        <v>30.62049708213216</v>
+        <v>29.06967700098762</v>
       </c>
       <c r="G10">
-        <v>40.17849976036359</v>
+        <v>38.02459753725473</v>
       </c>
       <c r="I10">
-        <v>3.603206250436792</v>
+        <v>3.514985423814195</v>
       </c>
       <c r="J10">
-        <v>11.88046101175863</v>
+        <v>11.39893546935962</v>
       </c>
       <c r="K10">
-        <v>16.47025003168703</v>
+        <v>15.23672512124865</v>
       </c>
       <c r="L10">
-        <v>5.589065872568286</v>
+        <v>12.6925717153675</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>10.26621031924254</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>5.567853550478933</v>
       </c>
       <c r="O10">
-        <v>17.85939615297288</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>11.59297930214194</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>17.74604008897977</v>
+      </c>
+      <c r="R10">
+        <v>11.68010432077283</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.05217963364381</v>
+        <v>24.05270545414691</v>
       </c>
       <c r="C11">
-        <v>20.54392889128181</v>
+        <v>21.15949892547782</v>
       </c>
       <c r="D11">
-        <v>5.548119426566116</v>
+        <v>5.935033594766383</v>
       </c>
       <c r="E11">
-        <v>8.301707783082263</v>
+        <v>8.479732837277568</v>
       </c>
       <c r="F11">
-        <v>31.24961554297036</v>
+        <v>29.36985924020187</v>
       </c>
       <c r="G11">
-        <v>41.16854498776996</v>
+        <v>39.78446853326639</v>
       </c>
       <c r="I11">
-        <v>3.773833624965765</v>
+        <v>3.65617069321336</v>
       </c>
       <c r="J11">
-        <v>12.00448439392641</v>
+        <v>10.87340704945626</v>
       </c>
       <c r="K11">
-        <v>16.54172544051824</v>
+        <v>15.11625569307357</v>
       </c>
       <c r="L11">
-        <v>5.576810098196463</v>
+        <v>12.50025908386542</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>10.35873660572846</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>5.555181506254725</v>
       </c>
       <c r="O11">
-        <v>18.49867853590431</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>11.4524541761004</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>18.32952971717414</v>
+      </c>
+      <c r="R11">
+        <v>11.58213694820279</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.37483108611077</v>
+        <v>24.31702883846771</v>
       </c>
       <c r="C12">
-        <v>20.81384519876213</v>
+        <v>21.37842557462214</v>
       </c>
       <c r="D12">
-        <v>5.581473393569314</v>
+        <v>6.001742792841073</v>
       </c>
       <c r="E12">
-        <v>8.335116316594847</v>
+        <v>8.531957137997063</v>
       </c>
       <c r="F12">
-        <v>31.51292377581733</v>
+        <v>29.48478893089652</v>
       </c>
       <c r="G12">
-        <v>41.58638810958207</v>
+        <v>40.57575725394373</v>
       </c>
       <c r="I12">
-        <v>3.836751918010155</v>
+        <v>3.706399679081779</v>
       </c>
       <c r="J12">
-        <v>12.06174465948823</v>
+        <v>10.62735611721355</v>
       </c>
       <c r="K12">
-        <v>16.59141692734353</v>
+        <v>15.07865284979656</v>
       </c>
       <c r="L12">
-        <v>5.572958800821251</v>
+        <v>12.43298923759528</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>10.40208530297951</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.55125069352715</v>
       </c>
       <c r="O12">
-        <v>18.73682822301737</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>11.39879773775283</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>18.54244431278765</v>
+      </c>
+      <c r="R12">
+        <v>11.54563426899591</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.3083888653217</v>
+        <v>24.26335938680619</v>
       </c>
       <c r="C13">
-        <v>20.75270627638271</v>
+        <v>21.32889047739914</v>
       </c>
       <c r="D13">
-        <v>5.573271270088046</v>
+        <v>5.986104328919462</v>
       </c>
       <c r="E13">
-        <v>8.327429626865801</v>
+        <v>8.520065727831023</v>
       </c>
       <c r="F13">
-        <v>31.46114181036686</v>
+        <v>29.46580763204213</v>
       </c>
       <c r="G13">
-        <v>41.50527941715858</v>
+        <v>40.41030699944589</v>
       </c>
       <c r="I13">
-        <v>3.822913067525346</v>
+        <v>3.695106431405381</v>
       </c>
       <c r="J13">
-        <v>12.05124944481987</v>
+        <v>10.6843659222822</v>
       </c>
       <c r="K13">
-        <v>16.58485829311642</v>
+        <v>15.09111717685629</v>
       </c>
       <c r="L13">
-        <v>5.573836971045524</v>
+        <v>12.45039167458976</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>10.39639297987324</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.55213903575147</v>
       </c>
       <c r="O13">
-        <v>18.68593531021365</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>11.41019414997771</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>18.49715211073564</v>
+      </c>
+      <c r="R13">
+        <v>11.55301068853136</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.08003601519638</v>
+        <v>24.0758604828079</v>
       </c>
       <c r="C14">
-        <v>20.5648508571953</v>
+        <v>21.17650573980091</v>
       </c>
       <c r="D14">
-        <v>5.550428579706136</v>
+        <v>5.939973489002925</v>
       </c>
       <c r="E14">
-        <v>8.304246067430682</v>
+        <v>8.4837506491947</v>
       </c>
       <c r="F14">
-        <v>31.27338191524612</v>
+        <v>29.38180338893102</v>
       </c>
       <c r="G14">
-        <v>41.20672049157416</v>
+        <v>39.85160939254943</v>
       </c>
       <c r="I14">
-        <v>3.778880209102145</v>
+        <v>3.660093359658147</v>
       </c>
       <c r="J14">
-        <v>12.00997699575407</v>
+        <v>10.85495271345927</v>
       </c>
       <c r="K14">
-        <v>16.54757530301634</v>
+        <v>15.11503471864509</v>
       </c>
       <c r="L14">
-        <v>5.576513471575366</v>
+        <v>12.49598153209366</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>10.36386128104765</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.554875298715993</v>
       </c>
       <c r="O14">
-        <v>18.51844583868251</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>11.4479734127561</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>18.34729618831559</v>
+      </c>
+      <c r="R14">
+        <v>11.5789307321949</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.93377222577598</v>
+        <v>23.9539188879029</v>
       </c>
       <c r="C15">
-        <v>20.45561580452296</v>
+        <v>21.08720903308503</v>
       </c>
       <c r="D15">
-        <v>5.538468252946747</v>
+        <v>5.914483226965979</v>
       </c>
       <c r="E15">
-        <v>8.291050528961968</v>
+        <v>8.462958308420369</v>
       </c>
       <c r="F15">
-        <v>31.14857287928078</v>
+        <v>29.31790422576374</v>
       </c>
       <c r="G15">
-        <v>41.00605253135605</v>
+        <v>39.50285486751395</v>
       </c>
       <c r="I15">
-        <v>3.752560234376406</v>
+        <v>3.639660354710857</v>
       </c>
       <c r="J15">
-        <v>11.9810941744476</v>
+        <v>10.94903416253545</v>
       </c>
       <c r="K15">
-        <v>16.51661609196978</v>
+        <v>15.12055368151524</v>
       </c>
       <c r="L15">
-        <v>5.578075851248206</v>
+        <v>12.51775175994981</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>10.33639918611502</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.556491789363851</v>
       </c>
       <c r="O15">
-        <v>18.41486200018915</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>11.47142384929163</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>18.2540135502468</v>
+      </c>
+      <c r="R15">
+        <v>11.59581348491565</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.11536001470968</v>
+        <v>23.26029574160375</v>
       </c>
       <c r="C16">
-        <v>19.77976850494264</v>
+        <v>20.49960547994135</v>
       </c>
       <c r="D16">
-        <v>5.457588678961378</v>
+        <v>5.767143480422502</v>
       </c>
       <c r="E16">
-        <v>8.211144519127185</v>
+        <v>8.346380147770351</v>
       </c>
       <c r="F16">
-        <v>30.49551368823654</v>
+        <v>28.96599747346105</v>
       </c>
       <c r="G16">
-        <v>39.96300695359337</v>
+        <v>37.77406082088567</v>
       </c>
       <c r="I16">
-        <v>3.597018159540642</v>
+        <v>3.513999070061718</v>
       </c>
       <c r="J16">
-        <v>11.84090580669758</v>
+        <v>11.39661612619608</v>
       </c>
       <c r="K16">
-        <v>16.39526803203407</v>
+        <v>15.17815649390456</v>
       </c>
       <c r="L16">
-        <v>5.588782033366651</v>
+        <v>12.65951874914152</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>10.2045027681252</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.567652686907235</v>
       </c>
       <c r="O16">
-        <v>17.81384265726013</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>11.60433055450608</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>17.7037605554902</v>
+      </c>
+      <c r="R16">
+        <v>11.69213367010914</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.60023348485421</v>
+        <v>22.80958506866661</v>
       </c>
       <c r="C17">
-        <v>19.35674253444429</v>
+        <v>20.10672781911042</v>
       </c>
       <c r="D17">
-        <v>5.40829831025725</v>
+        <v>5.686730727419568</v>
       </c>
       <c r="E17">
-        <v>8.163422619892181</v>
+        <v>8.282033562525319</v>
       </c>
       <c r="F17">
-        <v>30.09522405815418</v>
+        <v>28.71027167984598</v>
       </c>
       <c r="G17">
-        <v>39.319985996243</v>
+        <v>36.85720804478279</v>
       </c>
       <c r="I17">
-        <v>3.501106188121392</v>
+        <v>3.435317918764788</v>
       </c>
       <c r="J17">
-        <v>11.75651645445974</v>
+        <v>11.56952728663626</v>
       </c>
       <c r="K17">
-        <v>16.32372379058388</v>
+        <v>15.19429051967488</v>
       </c>
       <c r="L17">
-        <v>5.596126898912</v>
+        <v>12.73273631784604</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>10.11070676244458</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.575425627524928</v>
       </c>
       <c r="O17">
-        <v>17.43641350636523</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>11.68621455170726</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>17.37511718795786</v>
+      </c>
+      <c r="R17">
+        <v>11.75454254399762</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.31377745607702</v>
+        <v>22.55523810744866</v>
       </c>
       <c r="C18">
-        <v>19.09286357908385</v>
+        <v>19.85146174296674</v>
       </c>
       <c r="D18">
-        <v>5.37480647524144</v>
+        <v>5.638795733288051</v>
       </c>
       <c r="E18">
-        <v>8.134089453097856</v>
+        <v>8.245237797625412</v>
       </c>
       <c r="F18">
-        <v>29.89105738821374</v>
+        <v>28.57383149546083</v>
       </c>
       <c r="G18">
-        <v>38.99573110572586</v>
+        <v>36.4277479729147</v>
       </c>
       <c r="I18">
-        <v>3.443326544576066</v>
+        <v>3.385827275549988</v>
       </c>
       <c r="J18">
-        <v>11.71822602217889</v>
+        <v>11.64046505199627</v>
       </c>
       <c r="K18">
-        <v>16.30507957646073</v>
+        <v>15.2166203470414</v>
       </c>
       <c r="L18">
-        <v>5.600977934215452</v>
+        <v>12.78367730634872</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>10.06895464258885</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.580560901612192</v>
       </c>
       <c r="O18">
-        <v>17.23406832235045</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>11.73285625982921</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>17.20165192629745</v>
+      </c>
+      <c r="R18">
+        <v>11.79004032190509</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.20467289062722</v>
+        <v>22.45658029464324</v>
       </c>
       <c r="C19">
-        <v>19.01640088754829</v>
+        <v>19.77622524845548</v>
       </c>
       <c r="D19">
-        <v>5.367547368178991</v>
+        <v>5.627222502052359</v>
       </c>
       <c r="E19">
-        <v>8.126057900014494</v>
+        <v>8.235010149405605</v>
       </c>
       <c r="F19">
-        <v>29.80201474337591</v>
+        <v>28.50594086510548</v>
       </c>
       <c r="G19">
-        <v>38.8498180817156</v>
+        <v>36.25622794033249</v>
       </c>
       <c r="I19">
-        <v>3.425519385445527</v>
+        <v>3.371659461998802</v>
       </c>
       <c r="J19">
-        <v>11.69791783022441</v>
+        <v>11.65113702630626</v>
       </c>
       <c r="K19">
-        <v>16.2823933754345</v>
+        <v>15.20776258964092</v>
       </c>
       <c r="L19">
-        <v>5.602399471080067</v>
+        <v>12.78937937863802</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>10.04136902744148</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.582097142568226</v>
       </c>
       <c r="O19">
-        <v>17.17160268178293</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>11.74913163452516</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>17.14164839212924</v>
+      </c>
+      <c r="R19">
+        <v>11.80337253497899</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.65670558414749</v>
+        <v>22.85962884720831</v>
       </c>
       <c r="C20">
-        <v>19.40074588687154</v>
+        <v>20.14845832608218</v>
       </c>
       <c r="D20">
-        <v>5.413121359132962</v>
+        <v>5.694508226667215</v>
       </c>
       <c r="E20">
-        <v>8.168268954241757</v>
+        <v>8.288434696955553</v>
       </c>
       <c r="F20">
-        <v>30.1398365235494</v>
+        <v>28.74093418416711</v>
       </c>
       <c r="G20">
-        <v>39.39218112820807</v>
+        <v>36.95291640882115</v>
       </c>
       <c r="I20">
-        <v>3.511143581287198</v>
+        <v>3.443469418692387</v>
       </c>
       <c r="J20">
-        <v>11.76619380085959</v>
+        <v>11.55570580497065</v>
       </c>
       <c r="K20">
-        <v>16.33291198936578</v>
+        <v>15.19483073689912</v>
       </c>
       <c r="L20">
-        <v>5.595343304008135</v>
+        <v>12.7265407967677</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>10.12244658522873</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>5.574590072454235</v>
       </c>
       <c r="O20">
-        <v>17.47699932361369</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>11.67743462027445</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>17.40701063688298</v>
+      </c>
+      <c r="R20">
+        <v>11.74766400115702</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.13195925521067</v>
+        <v>24.09399101685808</v>
       </c>
       <c r="C21">
-        <v>20.63827224089587</v>
+        <v>21.19839371090253</v>
       </c>
       <c r="D21">
-        <v>5.562816389171027</v>
+        <v>5.975353605339084</v>
       </c>
       <c r="E21">
-        <v>8.313611216829505</v>
+        <v>8.506499594081697</v>
       </c>
       <c r="F21">
-        <v>31.30081614070995</v>
+        <v>29.31192294711391</v>
       </c>
       <c r="G21">
-        <v>41.2449753547744</v>
+        <v>40.21682992612013</v>
       </c>
       <c r="I21">
-        <v>3.793787720796721</v>
+        <v>3.671473446720224</v>
       </c>
       <c r="J21">
-        <v>12.01154048071375</v>
+        <v>10.62629312517753</v>
       </c>
       <c r="K21">
-        <v>16.53483714375451</v>
+        <v>15.05163755373274</v>
       </c>
       <c r="L21">
-        <v>5.575328203379344</v>
+        <v>12.44474357133863</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>10.32545722563151</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>5.553936601221404</v>
       </c>
       <c r="O21">
-        <v>18.56674932170968</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>11.4377129877141</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>18.37774885290506</v>
+      </c>
+      <c r="R21">
+        <v>11.57711537787605</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.07326325275088</v>
+        <v>24.87515728421811</v>
       </c>
       <c r="C22">
-        <v>21.39690514720465</v>
+        <v>21.82612145467483</v>
       </c>
       <c r="D22">
-        <v>5.654426175606004</v>
+        <v>6.15837182853858</v>
       </c>
       <c r="E22">
-        <v>8.409600290587861</v>
+        <v>8.654268697090446</v>
       </c>
       <c r="F22">
-        <v>32.09540275477455</v>
+        <v>29.69905711544605</v>
       </c>
       <c r="G22">
-        <v>42.50773522684615</v>
+        <v>42.46789941883173</v>
       </c>
       <c r="I22">
-        <v>3.974389090309963</v>
+        <v>3.815125043417362</v>
       </c>
       <c r="J22">
-        <v>12.19057729161454</v>
+        <v>9.993088706210472</v>
       </c>
       <c r="K22">
-        <v>16.70659452218693</v>
+        <v>14.97742645934564</v>
       </c>
       <c r="L22">
-        <v>5.565368501432874</v>
+        <v>12.27299036871902</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>10.48433575974977</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>5.543661447711959</v>
       </c>
       <c r="O22">
-        <v>19.25201633224509</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>11.28100789500531</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>18.99497910205809</v>
+      </c>
+      <c r="R22">
+        <v>11.46961208283674</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.59303334846139</v>
+        <v>24.4953389666205</v>
       </c>
       <c r="C23">
-        <v>20.97286333123855</v>
+        <v>21.50110437259385</v>
       </c>
       <c r="D23">
-        <v>5.598636922641768</v>
+        <v>6.042020202852593</v>
       </c>
       <c r="E23">
-        <v>8.354884311703014</v>
+        <v>8.564876187886766</v>
       </c>
       <c r="F23">
-        <v>31.70447391033115</v>
+        <v>29.57331342747263</v>
       </c>
       <c r="G23">
-        <v>41.89399969977097</v>
+        <v>41.14659994026306</v>
       </c>
       <c r="I23">
-        <v>3.876138888569513</v>
+        <v>3.736563465913449</v>
       </c>
       <c r="J23">
-        <v>12.10718222911536</v>
+        <v>10.46061170572881</v>
       </c>
       <c r="K23">
-        <v>16.64244736713893</v>
+        <v>15.06799667894291</v>
       </c>
       <c r="L23">
-        <v>5.570902014652988</v>
+        <v>12.39861372287151</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>10.44210969819845</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>5.549157414018014</v>
       </c>
       <c r="O23">
-        <v>18.89006316709473</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>11.36352096702336</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>18.67822470926226</v>
+      </c>
+      <c r="R23">
+        <v>11.52101130652318</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.6618624990444</v>
+        <v>22.86675614122539</v>
       </c>
       <c r="C24">
-        <v>19.34442209683991</v>
+        <v>20.09359975673729</v>
       </c>
       <c r="D24">
-        <v>5.399862253865974</v>
+        <v>5.67991854356987</v>
       </c>
       <c r="E24">
-        <v>8.161102862287656</v>
+        <v>8.280608497459845</v>
       </c>
       <c r="F24">
-        <v>30.17408084975728</v>
+        <v>28.77963162054818</v>
       </c>
       <c r="G24">
-        <v>39.45745892207856</v>
+        <v>37.00497235521541</v>
       </c>
       <c r="I24">
-        <v>3.502426950363856</v>
+        <v>3.433264959994579</v>
       </c>
       <c r="J24">
-        <v>11.78218096489377</v>
+        <v>11.58090818537241</v>
       </c>
       <c r="K24">
-        <v>16.37410227709053</v>
+        <v>15.23644157170125</v>
       </c>
       <c r="L24">
-        <v>5.596432060392166</v>
+        <v>12.75842015744355</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>10.15215182691991</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>5.575674460233954</v>
       </c>
       <c r="O24">
-        <v>17.46066276108165</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>11.68011244908115</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>17.39392783985529</v>
+      </c>
+      <c r="R24">
+        <v>11.74755286813651</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.39804169475339</v>
+        <v>20.76015329345242</v>
       </c>
       <c r="C25">
-        <v>17.46274732992912</v>
+        <v>18.11366056277141</v>
       </c>
       <c r="D25">
-        <v>5.18943320212987</v>
+        <v>5.422054096653957</v>
       </c>
       <c r="E25">
-        <v>7.9698702587227</v>
+        <v>8.069064893676254</v>
       </c>
       <c r="F25">
-        <v>28.53580831885488</v>
+        <v>27.39278586410612</v>
       </c>
       <c r="G25">
-        <v>36.79976727967445</v>
+        <v>34.50964065628769</v>
       </c>
       <c r="I25">
-        <v>3.089088164381435</v>
+        <v>3.079732627489694</v>
       </c>
       <c r="J25">
-        <v>11.45551848920745</v>
+        <v>11.40419467280212</v>
       </c>
       <c r="K25">
-        <v>16.12674155887639</v>
+        <v>15.16950396942735</v>
       </c>
       <c r="L25">
-        <v>5.634587945973103</v>
+        <v>12.96027748963378</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>9.684983702990081</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>5.61678549367748</v>
       </c>
       <c r="O25">
-        <v>16.07070888748557</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>12.0273126429539</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>16.04372106468733</v>
+      </c>
+      <c r="R25">
+        <v>12.03186561926314</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
